--- a/IMPORTANT/BALAJI (DELHI).xlsx
+++ b/IMPORTANT/BALAJI (DELHI).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>CUSTOMER NAME - BALAJI (DELHI)</t>
+  </si>
+  <si>
+    <t>gs 3-8-22</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1146,22 +1149,26 @@
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
-        <v>44713</v>
+        <v>44776</v>
       </c>
       <c r="B5" s="8">
-        <v>32030</v>
+        <v>79515</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8">
+        <v>950</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,11 +1180,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,11 +1196,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,11 +1212,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,11 +1228,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,11 +1244,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,11 +1260,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,11 +1276,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,11 +1292,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,11 +1308,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,11 +1324,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,11 +1340,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,11 +1356,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,11 +1372,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,11 +1388,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,11 +1404,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,11 +1420,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,11 +1436,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,11 +1452,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,11 +1468,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,11 +1484,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,11 +1500,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,11 +1516,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,11 +1532,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,11 +1548,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,11 +1564,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,11 +1580,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,11 +1596,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,11 +1612,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,11 +1629,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1647,7 +1654,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>32030</v>
+        <v>79515</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1655,7 +1662,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1678,7 +1685,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>32030</v>
+        <v>78565</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/BALAJI (DELHI).xlsx
+++ b/IMPORTANT/BALAJI (DELHI).xlsx
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/BALAJI (DELHI).xlsx
+++ b/IMPORTANT/BALAJI (DELHI).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>DATE</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>gs 3-8-22</t>
+  </si>
+  <si>
+    <t>DISCOUNT</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1083,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1164,11 +1167,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1176,15 +1179,19 @@
       <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44817</v>
+      </c>
+      <c r="G6" s="8">
+        <v>30000</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1192,15 +1199,19 @@
       <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="16">
+        <v>165</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1212,11 +1223,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1228,11 +1239,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1244,11 +1255,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1260,11 +1271,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1276,11 +1287,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1292,11 +1303,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1308,11 +1319,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1324,11 +1335,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1340,11 +1351,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1356,11 +1367,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1372,11 +1383,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1388,11 +1399,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1404,11 +1415,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1420,11 +1431,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1436,11 +1447,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1452,11 +1463,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1468,11 +1479,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1484,11 +1495,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1500,11 +1511,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1516,11 +1527,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1532,11 +1543,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1548,11 +1559,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1564,11 +1575,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1580,11 +1591,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1596,11 +1607,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1612,11 +1623,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1629,11 +1640,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1662,7 +1673,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>950</v>
+        <v>31115</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1685,7 +1696,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>78565</v>
+        <v>48400</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/BALAJI (DELHI).xlsx
+++ b/IMPORTANT/BALAJI (DELHI).xlsx
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1187,11 +1187,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1207,11 +1207,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1219,15 +1219,19 @@
       <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15">
+        <v>44837</v>
+      </c>
+      <c r="G8" s="16">
+        <v>22400</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1239,11 +1243,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1255,11 +1259,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1271,11 +1275,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1287,11 +1291,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1303,11 +1307,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1319,11 +1323,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1335,11 +1339,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1351,11 +1355,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1367,11 +1371,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1383,11 +1387,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1399,11 +1403,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1415,11 +1419,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1431,11 +1435,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1447,11 +1451,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1463,11 +1467,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1479,11 +1483,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1495,11 +1499,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1511,11 +1515,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1527,11 +1531,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1543,11 +1547,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1559,11 +1563,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1575,11 +1579,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1591,11 +1595,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1607,11 +1611,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,11 +1627,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1640,11 +1644,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1673,7 +1677,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>31115</v>
+        <v>53515</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1696,7 +1700,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>48400</v>
+        <v>26000</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/BALAJI (DELHI).xlsx
+++ b/IMPORTANT/BALAJI (DELHI).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -52,12 +52,6 @@
   </si>
   <si>
     <t>CUSTOMER NAME - BALAJI (DELHI)</t>
-  </si>
-  <si>
-    <t>gs 3-8-22</t>
-  </si>
-  <si>
-    <t>DISCOUNT</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A5" sqref="A5:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1151,27 +1145,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44776</v>
-      </c>
-      <c r="B5" s="8">
-        <v>79515</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="8">
-        <v>950</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>62</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1179,19 +1165,15 @@
       <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44817</v>
-      </c>
-      <c r="G6" s="8">
-        <v>30000</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1199,19 +1181,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="16">
-        <v>165</v>
-      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1219,19 +1197,15 @@
       <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
-      <c r="F8" s="15">
-        <v>44837</v>
-      </c>
-      <c r="G8" s="16">
-        <v>22400</v>
-      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1243,11 +1217,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1259,11 +1233,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1275,11 +1249,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1291,11 +1265,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1307,11 +1281,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1323,11 +1297,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1339,11 +1313,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1355,11 +1329,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1371,11 +1345,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1387,11 +1361,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1403,11 +1377,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1419,11 +1393,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1435,11 +1409,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1451,11 +1425,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1467,11 +1441,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1483,11 +1457,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1499,11 +1473,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1515,11 +1489,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1531,11 +1505,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1547,11 +1521,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1563,11 +1537,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1579,11 +1553,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1595,11 +1569,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1611,11 +1585,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1627,11 +1601,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1644,11 +1618,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1669,7 +1643,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>79515</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1677,7 +1651,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>53515</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1700,7 +1674,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/BALAJI (DELHI).xlsx
+++ b/IMPORTANT/BALAJI (DELHI).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>CUSTOMER NAME - BALAJI (DELHI)</t>
+  </si>
+  <si>
+    <t>GS4-1-23</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G8"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,35 +1148,45 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>44930</v>
+      </c>
+      <c r="B5" s="8">
+        <v>98967</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1320</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>97647</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44853</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8">
+        <v>2765</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,11 +1198,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1201,11 +1214,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1217,11 +1230,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1233,11 +1246,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1249,11 +1262,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,11 +1278,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1281,11 +1294,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1297,11 +1310,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1313,11 +1326,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,11 +1342,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,11 +1358,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,11 +1374,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,11 +1390,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,11 +1406,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,11 +1422,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,11 +1438,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,11 +1454,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,11 +1470,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,11 +1486,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,11 +1502,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,11 +1518,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,11 +1534,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,11 +1550,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,11 +1566,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,11 +1582,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,11 +1598,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,11 +1614,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1631,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44853</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1643,7 +1656,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>101732</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1651,7 +1664,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>1320</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1674,7 +1687,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>100412</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/BALAJI (DELHI).xlsx
+++ b/IMPORTANT/BALAJI (DELHI).xlsx
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44956</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/BALAJI (DELHI).xlsx
+++ b/IMPORTANT/BALAJI (DELHI).xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1164,11 +1164,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>97647</v>
+        <v>64147</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1178,15 +1178,19 @@
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44966</v>
+      </c>
+      <c r="G6" s="8">
+        <v>33500</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1198,11 +1202,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1214,11 +1218,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1234,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1250,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1266,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1278,11 +1282,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1294,11 +1298,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,11 +1314,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1330,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1346,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1362,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1378,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1394,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1410,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1426,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1442,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1458,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1474,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1490,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1506,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1522,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1538,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1554,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1570,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1586,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1602,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1614,11 +1618,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1631,11 +1635,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44960</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1664,7 +1668,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>1320</v>
+        <v>34820</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1687,7 +1691,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>100412</v>
+        <v>66912</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/BALAJI (DELHI).xlsx
+++ b/IMPORTANT/BALAJI (DELHI).xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1164,11 +1164,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>64147</v>
+        <v>44147</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,11 +1186,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1198,15 +1198,19 @@
       <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44975</v>
+      </c>
+      <c r="G7" s="16">
+        <v>20000</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,11 +1222,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,11 +1238,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,11 +1254,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,11 +1270,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1282,11 +1286,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1298,11 +1302,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,11 +1318,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,11 +1334,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,11 +1350,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,11 +1366,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,11 +1382,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,11 +1398,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,11 +1414,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,11 +1430,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,11 +1446,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,11 +1462,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,11 +1478,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1494,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1510,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1526,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1542,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1558,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1574,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1590,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1606,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1622,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1635,11 +1639,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44969</v>
+        <v>44975</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1668,7 +1672,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>34820</v>
+        <v>54820</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1691,7 +1695,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>66912</v>
+        <v>46912</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/BALAJI (DELHI).xlsx
+++ b/IMPORTANT/BALAJI (DELHI).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>CUSTOMER NAME - BALAJI (DELHI)</t>
-  </si>
-  <si>
-    <t>GS4-1-23</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A6" sqref="A5:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1148,49 +1145,35 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44930</v>
-      </c>
-      <c r="B5" s="8">
-        <v>98967</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1320</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>44147</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="8">
-        <v>2765</v>
-      </c>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44966</v>
-      </c>
-      <c r="G6" s="8">
-        <v>33500</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1198,19 +1181,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49">
-        <v>44975</v>
-      </c>
-      <c r="G7" s="16">
-        <v>20000</v>
-      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1222,11 +1201,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1238,11 +1217,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,11 +1233,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1270,11 +1249,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1286,11 +1265,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1302,11 +1281,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1318,11 +1297,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1334,11 +1313,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1350,11 +1329,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1366,11 +1345,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1382,11 +1361,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,11 +1377,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,11 +1393,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1430,11 +1409,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,11 +1425,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1462,11 +1441,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1478,11 +1457,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1494,11 +1473,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,11 +1489,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,11 +1505,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,11 +1521,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,11 +1537,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,11 +1553,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,11 +1569,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,11 +1585,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,11 +1601,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1639,11 +1618,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44975</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1664,7 +1643,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>101732</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1672,7 +1651,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>54820</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1695,7 +1674,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>46912</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/BALAJI (DELHI).xlsx
+++ b/IMPORTANT/BALAJI (DELHI).xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A5:G9"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/BALAJI (DELHI).xlsx
+++ b/IMPORTANT/BALAJI (DELHI).xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,19 +1145,27 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>45159</v>
+      </c>
+      <c r="B5" s="8">
+        <v>87590</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>45210</v>
+      </c>
+      <c r="G5" s="8">
+        <v>50000</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45091</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1169,11 +1177,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,11 +1193,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1201,11 +1209,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1217,11 +1225,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1233,11 +1241,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1249,11 +1257,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,11 +1273,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1281,11 +1289,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1297,11 +1305,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1313,11 +1321,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,11 +1337,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,11 +1353,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,11 +1369,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,11 +1385,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,11 +1401,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,11 +1417,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,11 +1433,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,11 +1449,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,11 +1465,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,11 +1481,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,11 +1497,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,11 +1513,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,11 +1529,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,11 +1545,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,11 +1561,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,11 +1577,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,11 +1593,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,11 +1609,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1626,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1643,7 +1651,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>87590</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1651,7 +1659,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1674,7 +1682,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>37590</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
